--- a/Ablag_Exports/Meldung_AB_FZ_20240419.xlsx
+++ b/Ablag_Exports/Meldung_AB_FZ_20240419.xlsx
@@ -1,24 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BVB30103866\OneDrive - Basler Verkehrs-Betriebe\Desktop\Documents\github\Ablag_Exports\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_9A3A7F4EC4094E9ABB6C0007B75C06421700E30A" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{50EAA6B6-A10F-4F05-AF94-A3F7B18B8188}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21855" windowHeight="14940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$12</definedName>
-  </definedNames>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -208,17 +196,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="168" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,6 +222,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,8 +262,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -269,349 +279,48 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment wrapText="1" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="82" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="16" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="16" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="22" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="16" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="22" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="14" customWidth="1"/>
+    <col min="7" max="7" bestFit="1" width="20" customWidth="1"/>
+    <col min="8" max="8" bestFit="1" width="15" customWidth="1"/>
+    <col min="9" max="9" bestFit="1" width="11" customWidth="1"/>
+    <col min="10" max="10" bestFit="1" width="39" customWidth="1"/>
+    <col min="11" max="11" bestFit="1" width="10" customWidth="1"/>
+    <col min="12" max="12" bestFit="1" width="9" customWidth="1"/>
+    <col min="13" max="13" bestFit="1" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -652,7 +361,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -666,11 +375,11 @@
         <v>44946</v>
       </c>
       <c r="E2" s="3">
-        <v>0.4341087962963</v>
+        <v>0.43410879629630</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H2" s="2">
         <v>44946</v>
@@ -691,7 +400,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -709,7 +418,7 @@
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H3" s="2">
         <v>45117</v>
@@ -730,7 +439,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -748,7 +457,7 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H4" s="2">
         <v>45299</v>
@@ -769,34 +478,34 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2">
-        <v>45355</v>
+        <v>45358</v>
       </c>
       <c r="E5" s="3">
-        <v>0.99998842592592996</v>
+        <v>0.73164351851852</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H5" s="2">
-        <v>45363</v>
+        <v>45358</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K5" t="s">
         <v>21</v>
@@ -808,34 +517,34 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2">
-        <v>45358</v>
+        <v>45355</v>
       </c>
       <c r="E6" s="3">
-        <v>0.73164351851852005</v>
+        <v>0.99998842592593</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H6" s="2">
-        <v>45358</v>
+        <v>45363</v>
       </c>
       <c r="I6" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K6" t="s">
         <v>21</v>
@@ -847,37 +556,37 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2">
-        <v>45386</v>
+        <v>45393</v>
       </c>
       <c r="E7" s="3">
-        <v>0.37748842592593002</v>
+        <v>0.35578703703704</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H7" s="2">
-        <v>45394</v>
+        <v>45393</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K7" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="L7" t="s">
         <v>6</v>
@@ -886,37 +595,37 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2">
-        <v>45393</v>
+        <v>45386</v>
       </c>
       <c r="E8" s="3">
-        <v>0.35578703703704001</v>
+        <v>0.37748842592593</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H8" s="2">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="I8" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="J8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K8" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="L8" t="s">
         <v>6</v>
@@ -925,7 +634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -939,13 +648,13 @@
         <v>45398</v>
       </c>
       <c r="E9" s="3">
-        <v>0.44880787037037001</v>
+        <v>0.44880787037037</v>
       </c>
       <c r="F9" s="2">
         <v>45399</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H9" s="2">
         <v>45398</v>
@@ -966,7 +675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -980,11 +689,11 @@
         <v>45400</v>
       </c>
       <c r="E10" s="3">
-        <v>0.48399305555555999</v>
+        <v>0.48399305555556</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H10" s="2">
         <v>45400</v>
@@ -1005,7 +714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -1019,11 +728,11 @@
         <v>45401</v>
       </c>
       <c r="E11" s="3">
-        <v>0.35247685185185001</v>
+        <v>0.35247685185185</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H11" s="2">
         <v>45400</v>
@@ -1044,7 +753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -1058,11 +767,11 @@
         <v>45401</v>
       </c>
       <c r="E12" s="3">
-        <v>1.1574074069999999E-5</v>
+        <v>0.00001157407407</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H12" s="2">
         <v>45401</v>
@@ -1084,11 +793,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M12" xr:uid="{D786EB91-A989-4241-BEAA-4BDE0C7A8442}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M12">
-      <sortCondition ref="D1:D12"/>
-    </sortState>
-  </autoFilter>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
